--- a/forms/mps/mps_list_excel.xlsx
+++ b/forms/mps/mps_list_excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>NO</t>
   </si>
@@ -47,61 +47,214 @@
     <t>REMARK</t>
   </si>
   <si>
-    <t>131921-LR6C1NC-1</t>
+    <t>120500002099-LR6C1NC-2</t>
+  </si>
+  <si>
+    <t>FJ LONGLIFE JEE LR6 2S</t>
+  </si>
+  <si>
+    <t>10-2025</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>DATE CODE TIDAK SESUAI DENGAN TANGGAL PRODUKSI.</t>
+  </si>
+  <si>
+    <t>120500002113-LR03C1NC-1</t>
+  </si>
+  <si>
+    <t>FUJITSU G JE LR03 2S</t>
+  </si>
+  <si>
+    <t>10-2027</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>120500002147-LR03C1NC-1</t>
+  </si>
+  <si>
+    <t>FJ UNIVERSAL POWER ASIA LR03 2</t>
+  </si>
+  <si>
+    <t>120500002268-LR6C1NC-1</t>
+  </si>
+  <si>
+    <t>FUJITSU E1 LR6 2S</t>
+  </si>
+  <si>
+    <t>12-2020</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>120500002339-LR6C1NC-1</t>
+  </si>
+  <si>
+    <t>FUJITSU R-SPEC JEE LR6 2S</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>2021-03-07</t>
+  </si>
+  <si>
+    <t>120500002340-LR03C1NC-1</t>
+  </si>
+  <si>
+    <t>FJ R-SPEC JEE (SONY) LR03 2S</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-09-02</t>
+  </si>
+  <si>
+    <t>2021-03-02</t>
+  </si>
+  <si>
+    <t>120500002341-LR6C1NC-4</t>
+  </si>
+  <si>
+    <t>FJ UNIVERSAL POWER EU LR6 8B</t>
+  </si>
+  <si>
+    <t>11-2030</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-30</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-09-08</t>
+  </si>
+  <si>
+    <t>2021-03-08</t>
+  </si>
+  <si>
+    <t>120500002341-LR03C1NC-5</t>
+  </si>
+  <si>
+    <t>FJ UNIVERSAL POWER EU LR03 8B</t>
+  </si>
+  <si>
+    <t>20FI019-LR03C1NC-5</t>
+  </si>
+  <si>
+    <t>MITSUBISHI GD LR03 4S</t>
+  </si>
+  <si>
+    <t>0015585-LR6C1NC-1</t>
   </si>
   <si>
     <t>MAXELL SEVEN LR6 2B</t>
   </si>
   <si>
-    <t>08-2027</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>2020-09-30</t>
-  </si>
-  <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>DATE CODE TIDAK SESUAI DENGAN TANGGAL PRODUKSI.</t>
-  </si>
-  <si>
-    <t>120500002113-LR03C1NC-1</t>
-  </si>
-  <si>
-    <t>FUJITSU G JE LR03 2S</t>
-  </si>
-  <si>
-    <t>10-2027</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2020-07-26</t>
-  </si>
-  <si>
-    <t>2021-01-26</t>
-  </si>
-  <si>
-    <t>2020-10-27</t>
-  </si>
-  <si>
-    <t>2020-07-27</t>
-  </si>
-  <si>
-    <t>2021-01-27</t>
-  </si>
-  <si>
-    <t>20FI016-LR6C1NC-3</t>
-  </si>
-  <si>
-    <t>MITSUBISHI GD LR6 4B</t>
+    <t>09-2027</t>
+  </si>
+  <si>
+    <t>0015585-LR03C1NC-2</t>
+  </si>
+  <si>
+    <t>MAXELL SEVEN LR03 2B</t>
+  </si>
+  <si>
+    <t>0015585-LR6G06NC-3</t>
+  </si>
+  <si>
+    <t>MAXELL DX LR6 2B</t>
+  </si>
+  <si>
+    <t>0015585-LR03G06NC-4</t>
+  </si>
+  <si>
+    <t>MAXELL DX LR03 2B</t>
+  </si>
+  <si>
+    <t>0015620-LR03C1NC-1</t>
+  </si>
+  <si>
+    <t>MAXELL V LR03 4S</t>
+  </si>
+  <si>
+    <t>08-2025</t>
+  </si>
+  <si>
+    <t>FI/20-174-LR6C1NC-1</t>
+  </si>
+  <si>
+    <t>FJ UNIVERSAL POWER ASIA LR6 4B</t>
+  </si>
+  <si>
+    <t>FI/20-174-LR03C1NC-2</t>
+  </si>
+  <si>
+    <t>FJ UNIVERSAL POWER ASIA LR03 4</t>
+  </si>
+  <si>
+    <t>FI/20-194-LR03C1NC-1</t>
+  </si>
+  <si>
+    <t>FJ UNIVERSAL POWER EU LR03 4B</t>
+  </si>
+  <si>
+    <t>FIAL20-021-LR03C1NC-1</t>
+  </si>
+  <si>
+    <t>FJ EUR LR03G (BULK)</t>
+  </si>
+  <si>
+    <t>FIAL20-030-LR03C1NC-1</t>
   </si>
   <si>
     <t>09-2025</t>
+  </si>
+  <si>
+    <t>FITK/20-059-LR6C1NC-1</t>
   </si>
 </sst>
 </file>
@@ -458,7 +611,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>23051</v>
+        <v>69190</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -515,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -602,16 +755,16 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>14835</v>
+        <v>89703</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -623,6 +776,614 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>90170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>66180</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>66233</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>66233</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>94990</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>94990</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>98390</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>84</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>30453</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>23051</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>23152</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16">
+        <v>57251</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17">
+        <v>57281</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>21261</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <v>94983</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>97583</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21">
+        <v>86550</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <v>93940</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23">
+        <v>57326</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24">
+        <v>90170</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
         <v>16</v>
       </c>
     </row>
